--- a/jeopardy-tmpl.xlsx
+++ b/jeopardy-tmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeberle/jeberle.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DC11BF-69CF-324A-8EE7-87C5E01AED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CF4685-BFD2-714F-A99F-517E90546EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{C00E97F6-74C2-6342-AB60-EA82420C7696}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Ans</t>
   </si>
@@ -70,22 +70,19 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
   </si>
   <si>
     <t>Category name</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Answer 1</t>
-  </si>
-  <si>
-    <t>Answer 2</t>
   </si>
 </sst>
 </file>
@@ -324,6 +321,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -399,56 +446,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -458,22 +455,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -493,7 +474,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -526,7 +506,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -535,36 +515,28 @@
         <bottom style="thin">
           <color theme="6" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -615,37 +587,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -658,32 +599,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <border outline="0">
         <top style="thin">
           <color theme="6" tint="0.39997558519241921"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="6" tint="0.39997558519241921"/>
         </bottom>
@@ -715,64 +638,142 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="6" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -813,15 +814,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67D6FA7E-3C42-854E-980A-A6442AD47E2C}" name="Ans" displayName="Ans" ref="B6:H17" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67D6FA7E-3C42-854E-980A-A6442AD47E2C}" name="Ans" displayName="Ans" ref="B6:H17" totalsRowCount="1" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="7">
-    <tableColumn id="12" xr3:uid="{0EE965BF-698E-B246-B3B6-63C3EC756567}" name="Show" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{749FDF6D-B2FB-4249-B43D-1A79424F3586}" name="Ans" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8A28ECAF-6C97-1245-89A9-BA6DA43CA893}" name="Ques" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{0EE965BF-698E-B246-B3B6-63C3EC756567}" name="Show" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{B9B5C2BE-EF9D-5946-8A85-21F53D20B3F5}" name="DD" dataDxfId="9" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{2378CE35-15F4-EF48-B32C-6B947E8919C3}" name="Correct" dataDxfId="8" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{D04485A4-0CA2-794E-B724-6FBF6944B286}" name="Points" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{B9B5C2BE-EF9D-5946-8A85-21F53D20B3F5}" name="DD" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{2378CE35-15F4-EF48-B32C-6B947E8919C3}" name="Correct" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C3C0BCF6-D4F5-2349-A0B0-5482E24A68FE}" name="Result" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{749FDF6D-B2FB-4249-B43D-1A79424F3586}" name="Ans" dataDxfId="18" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8A28ECAF-6C97-1245-89A9-BA6DA43CA893}" name="Ques" dataDxfId="17" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C3C0BCF6-D4F5-2349-A0B0-5482E24A68FE}" name="Result" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="0">
       <calculatedColumnFormula>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -830,12 +831,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87F5ED29-7526-0444-B1C3-0EF8ADE60575}" name="Table3" displayName="Table3" ref="B2:C3" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87F5ED29-7526-0444-B1C3-0EF8ADE60575}" name="Table3" displayName="Table3" ref="E2:F3" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5B4E8FAF-408F-2040-8D26-11B06F35D40B}" name="Show" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{64FB5A69-AD0A-834B-8373-AF65759D32C6}" name="Category" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{5B4E8FAF-408F-2040-8D26-11B06F35D40B}" name="Show" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{64FB5A69-AD0A-834B-8373-AF65759D32C6}" name="Category" dataDxfId="12"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1140,7 +1141,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,30 +1229,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A928A27-2424-734C-A3D6-BDE6537AAEEF}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="62.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -1259,19 +1262,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>8</v>
@@ -1281,17 +1284,17 @@
       <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>100</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
@@ -1301,17 +1304,17 @@
       <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>200</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
@@ -1321,13 +1324,13 @@
       <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>300</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
@@ -1337,13 +1340,13 @@
       <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>400</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
@@ -1353,13 +1356,13 @@
       <c r="B11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>500</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
@@ -1369,13 +1372,15 @@
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>600</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
@@ -1385,13 +1390,13 @@
       <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>700</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
@@ -1401,13 +1406,13 @@
       <c r="B14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4">
         <v>800</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
@@ -1417,43 +1422,41 @@
       <c r="B15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4">
         <v>900</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="4">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="13">
         <v>1000</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="13">
         <f>Ans[[#This Row],[Points]]*Ans[[#This Row],[Correct]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="12">
         <f>SUBTOTAL(109,Ans[Result])</f>
         <v>0</v>
@@ -1461,16 +1464,17 @@
     </row>
     <row r="18" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
